--- a/PlayTest/Playtest1/角色卡/符离.xlsx
+++ b/PlayTest/Playtest1/角色卡/符离.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitStuff\Tao\PlayTest\Playtest1\角色卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCDE720-196E-4B18-AD67-01035155D4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C72C0-8DED-456D-91F4-5E4F2B58A3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="0" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,55 +263,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1：狼妖--符离是修炼成人的狼妖，因此他会使用狼语，
-拥有3点自然护甲，并可以使用5点灵力在人和狼形态之间切换，
-狼形态获得10尺移动速度并且徒手攻击变为1d6
-但是符离在月圆之夜需要对月嚎叫
+    <t>可以储存法术于符咒中，储存的法术所有人都可使用，使用后符咒会销毁。如没有特殊加持，符咒会在第二天失去效果。获得道术的熟练。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你学会与万物中的道进行链接，你可以在冥想中进行道的传输。在超过半个时辰的休息中，你可以和任意友善单位进行一比一的灵气的传输。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你进一步领悟了道术的奥妙，可以用更少的代价来施展道术。你的最终道术消耗-1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞察成为精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1d6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：狼妖--符离是修炼成人的狼妖，他会使用狼语，
+，并可以使用5点灵力在人和狼形态之间切换，
+狼形态获得10尺移动速度、拥有3点自然护甲
+并且徒手攻击变为1d6。
+但是符离在月圆之夜需要对月嚎叫，
+并且在狼形态下不能持握物品也无法使用法术。
 2：剑术熟练--获得剑的熟练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以储存法术于符咒中，储存的法术所有人都可使用，使用后符咒会销毁。如没有特殊加持，符咒会在第二天失去效果。获得道术的熟练。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你学会与万物中的道进行链接，你可以在冥想中进行道的传输。在超过半个时辰的休息中，你可以和任意友善单位进行一比一的灵气的传输。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你进一步领悟了道术的奥妙，可以用更少的代价来施展道术。你的最终道术消耗-1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞察</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞察成为精通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/1d6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,11 +381,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -670,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -688,24 +690,24 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="7">
         <f>(E2/F2)%</f>
         <v>0.01</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -746,13 +748,13 @@
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f>(E4/F4)%</f>
         <v>0.01</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -801,11 +803,11 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6">
         <f>10+IF(G7="重甲",0,E15)+H7+IF(H9&gt;0,G9,0)</f>
         <v>15</v>
@@ -821,11 +823,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -841,7 +843,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -857,14 +859,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -880,7 +882,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -931,7 +933,7 @@
         <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -1115,7 +1117,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1131,7 +1133,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1146,7 +1148,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1161,7 +1163,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1260,10 +1262,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1271,10 +1273,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1282,10 +1284,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1293,10 +1295,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1339,6 +1341,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B7:E11"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H30:I30"/>
@@ -1348,30 +1374,6 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B7:E11"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4">

--- a/PlayTest/Playtest1/角色卡/符离.xlsx
+++ b/PlayTest/Playtest1/角色卡/符离.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitStuff\Tao\PlayTest\Playtest1\角色卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C72C0-8DED-456D-91F4-5E4F2B58A3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6EA314-4572-41D5-9F63-6267BCFF610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="0" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,25 +295,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洞察成为精通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1/1d6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>获得剑术熟练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1：狼妖--符离是修炼成人的狼妖，他会使用狼语，
-，并可以使用5点灵力在人和狼形态之间切换，
+，并可以使用一个动作在人和狼形态之间切换，
 狼形态获得10尺移动速度、拥有3点自然护甲
 并且徒手攻击变为1d6。
-但是符离在月圆之夜需要对月嚎叫，
-并且在狼形态下不能持握物品也无法使用法术。
-2：剑术熟练--获得剑的熟练</t>
+符离在狼形态下不能持握物品，
+符离的物品会融入他的形态
+也无法使用法术。
+2：月之链接：符离在满月下
+狼形态可以进行一次额外行动，
+人形态可以就将法力消耗-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对肉体造成伤害时，对方需要进行一个DC13的心智豁免，失败的话对方下一回合会失去一个动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/0+护甲数量的灵力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 or 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变为鱼或者兔子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d6，中体型，可操纵，5血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 or 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵龛</t>
+  </si>
+  <si>
+    <t>龙形状的玉佩，存储了符离平日积攒的灵力，
+可以使用一个动作为符离补充灵力，至多可以储存10点灵力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,11 +456,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -670,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -684,32 +759,34 @@
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="8">
         <f>(E2/F2)%</f>
         <v>0.01</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -729,7 +806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -748,15 +825,15 @@
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <f>(E4/F4)%</f>
         <v>0.01</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -777,7 +854,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -799,15 +876,15 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6">
         <f>10+IF(G7="重甲",0,E15)+H7+IF(H9&gt;0,G9,0)</f>
         <v>15</v>
@@ -822,8 +899,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -842,8 +919,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -858,15 +935,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -881,8 +958,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -897,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -913,7 +990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -933,13 +1010,13 @@
         <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -961,8 +1038,17 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -988,8 +1074,17 @@
         <v>44</v>
       </c>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1011,8 +1106,20 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1040,8 +1147,20 @@
         <v>25</v>
       </c>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1059,10 +1178,30 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1080,10 +1219,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1093,7 +1237,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1109,7 +1253,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -1125,7 +1269,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -1140,7 +1284,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -1148,14 +1292,14 @@
         <v>54</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -1170,7 +1314,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -1181,7 +1325,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -1192,7 +1336,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>7</v>
       </c>
@@ -1203,7 +1347,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>8</v>
       </c>
@@ -1214,7 +1358,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -1225,7 +1369,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>10</v>
       </c>
@@ -1236,7 +1380,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1287,7 +1431,7 @@
         <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1341,6 +1485,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B7:E11"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="H26:I26"/>
@@ -1350,30 +1518,6 @@
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B7:E11"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4">
